--- a/UserStory.xlsx
+++ b/UserStory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
   <si>
     <t>User Story</t>
   </si>
@@ -733,46 +733,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,67 +822,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1217,379 +1181,379 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24" t="s">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24" t="s">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
     </row>
     <row r="17" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="19" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
     </row>
     <row r="21" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -2179,21 +2143,47 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="73">
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
@@ -2210,48 +2200,22 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2263,7 +2227,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,42 +2246,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -2370,7 +2334,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="8">
@@ -2416,7 +2380,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -2430,7 +2394,7 @@
         <v>68</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>75</v>
@@ -2460,46 +2424,46 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="46">
+      <c r="A6" s="42"/>
+      <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="26">
         <v>5</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="25">
         <v>100</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="47">
-        <v>0</v>
-      </c>
-      <c r="K6" s="47">
-        <v>0</v>
-      </c>
-      <c r="L6" s="47">
-        <v>0</v>
-      </c>
-      <c r="M6" s="47">
-        <v>0</v>
-      </c>
-      <c r="N6" s="47">
-        <v>0</v>
-      </c>
-      <c r="O6" s="47">
-        <v>0</v>
-      </c>
-      <c r="P6" s="50">
+      <c r="H6" s="25"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>0</v>
+      </c>
+      <c r="O6" s="26">
+        <v>0</v>
+      </c>
+      <c r="P6" s="29">
         <v>0</v>
       </c>
     </row>
@@ -2520,7 +2484,7 @@
         <v>71</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>89</v>
@@ -2550,7 +2514,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="43" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="9">
@@ -2566,7 +2530,7 @@
         <v>72</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>89</v>
@@ -2596,7 +2560,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2638,7 +2602,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="9">
         <v>7</v>
       </c>
@@ -2680,48 +2644,48 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="26">
         <v>5</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="25">
         <v>800</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="47">
-        <v>0</v>
-      </c>
-      <c r="K11" s="47">
-        <v>0</v>
-      </c>
-      <c r="L11" s="47">
-        <v>0</v>
-      </c>
-      <c r="M11" s="47">
-        <v>0</v>
-      </c>
-      <c r="N11" s="47">
-        <v>0</v>
-      </c>
-      <c r="O11" s="47">
-        <v>0</v>
-      </c>
-      <c r="P11" s="50">
+      <c r="H11" s="25"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <v>0</v>
+      </c>
+      <c r="O11" s="26">
+        <v>0</v>
+      </c>
+      <c r="P11" s="29">
         <v>0</v>
       </c>
     </row>
@@ -2742,9 +2706,11 @@
         <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="18"/>
       <c r="J12" s="8">
@@ -2770,7 +2736,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="9">
@@ -2786,7 +2752,7 @@
         <v>80</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>90</v>
@@ -2816,7 +2782,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -2860,7 +2826,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="9">
@@ -2904,7 +2870,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="9">
         <v>13</v>
       </c>
@@ -3785,13 +3751,13 @@
     <mergeCell ref="A15:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F40">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F4)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/UserStory.xlsx
+++ b/UserStory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>User Story</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Marlon</t>
+  </si>
+  <si>
+    <t>Aborted</t>
   </si>
 </sst>
 </file>
@@ -755,6 +758,14 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -779,15 +790,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -828,7 +831,50 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -867,6 +913,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1165,8 +1216,8 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="540" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:C17"/>
+      <pane ySplit="540" topLeftCell="A10" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1181,56 +1232,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2143,12 +2194,57 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="73">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -2165,57 +2261,12 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2227,7 +2278,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,7 +2489,7 @@
         <v>69</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>75</v>
@@ -2660,7 +2711,7 @@
         <v>79</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>89</v>
@@ -2836,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="9">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>84</v>
@@ -3751,14 +3802,19 @@
     <mergeCell ref="A15:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F40">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Aborted">
+      <formula>NOT(ISERROR(SEARCH("Aborted",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UserStory.xlsx
+++ b/UserStory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>User Story</t>
   </si>
@@ -758,14 +758,14 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -790,7 +790,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -831,43 +831,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1264,24 +1228,24 @@
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2194,6 +2158,63 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="73">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H7:K7"/>
@@ -2210,63 +2231,6 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2277,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,9 +2589,11 @@
         <v>74</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="18"/>
       <c r="J9" s="8">
@@ -2667,9 +2633,11 @@
         <v>73</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="18"/>
       <c r="J10" s="8">
@@ -2748,7 +2716,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="9">
         <v>500</v>
@@ -2757,7 +2725,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>90</v>
@@ -2794,7 +2762,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13" s="9">
         <v>700</v>
@@ -2838,7 +2806,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14" s="9">
         <v>700</v>
@@ -2884,7 +2852,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="8">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9">
         <v>800</v>
@@ -2893,9 +2861,11 @@
         <v>84</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="18"/>
       <c r="J15" s="8">
@@ -2926,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="9">
         <v>500</v>
@@ -2937,7 +2907,9 @@
       <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="18"/>
       <c r="J16" s="8">
@@ -2970,7 +2942,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D17" s="9">
         <v>100</v>
@@ -2979,9 +2951,11 @@
         <v>86</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="18"/>
       <c r="J17" s="8">
@@ -3014,7 +2988,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="8">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9">
         <v>100</v>
@@ -3023,9 +2997,11 @@
         <v>87</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="18"/>
       <c r="J18" s="8">
@@ -3802,18 +3778,18 @@
     <mergeCell ref="A15:A16"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F40">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Closed">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Open">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Open">
       <formula>NOT(ISERROR(SEARCH("Open",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Aborted">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Aborted">
       <formula>NOT(ISERROR(SEARCH("Aborted",F1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/UserStory.xlsx
+++ b/UserStory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>User Story</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Closed</t>
-  </si>
-  <si>
-    <t>Open</t>
   </si>
   <si>
     <t>Estimated Time</t>
@@ -758,39 +755,39 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1196,56 +1193,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1432,7 +1429,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
@@ -2158,6 +2155,63 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="73">
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D5:E5"/>
@@ -2174,63 +2228,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2242,7 +2239,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,10 +2303,10 @@
         <v>60</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>61</v>
@@ -2318,13 +2315,13 @@
         <v>62</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="J3" s="16">
         <v>42410</v>
@@ -2362,13 +2359,13 @@
         <v>2100</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="17"/>
@@ -2406,13 +2403,13 @@
         <v>1300</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="18"/>
@@ -2450,13 +2447,13 @@
         <v>100</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="28"/>
@@ -2496,13 +2493,13 @@
         <v>800</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="18"/>
@@ -2542,13 +2539,13 @@
         <v>800</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="18"/>
@@ -2586,13 +2583,13 @@
         <v>100</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="18"/>
@@ -2630,13 +2627,13 @@
         <v>100</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="18"/>
@@ -2676,13 +2673,13 @@
         <v>800</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="28"/>
@@ -2728,7 +2725,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="18"/>
@@ -2768,13 +2765,13 @@
         <v>700</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="18"/>
@@ -2812,13 +2809,13 @@
         <v>700</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="18"/>
@@ -2858,13 +2855,13 @@
         <v>800</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="18"/>
@@ -2902,13 +2899,13 @@
         <v>500</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="18"/>
@@ -2948,13 +2945,13 @@
         <v>100</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="18"/>
@@ -2994,13 +2991,13 @@
         <v>100</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="18"/>
@@ -3762,7 +3759,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44">
         <f>SUM(J42:P42)</f>

--- a/UserStory.xlsx
+++ b/UserStory.xlsx
@@ -755,6 +755,14 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -779,15 +787,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1193,56 +1193,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2155,6 +2155,63 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="73">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H7:K7"/>
@@ -2171,63 +2228,6 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2239,7 +2239,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,7 +2812,7 @@
         <v>82</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>89</v>
@@ -2948,7 +2948,7 @@
         <v>85</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>88</v>

--- a/UserStory.xlsx
+++ b/UserStory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t>User Story</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Supprimer un compte</t>
   </si>
   <si>
-    <t>Ajout d'un parcours</t>
-  </si>
-  <si>
     <t>Administrateur</t>
   </si>
   <si>
@@ -289,6 +286,18 @@
   </si>
   <si>
     <t>Aborted</t>
+  </si>
+  <si>
+    <t>Dessiner le parcours sur la map</t>
+  </si>
+  <si>
+    <t>Ajout d'un parcours (base de données)</t>
+  </si>
+  <si>
+    <t>Ajout d'un parcours (API)</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -755,39 +764,39 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1193,56 +1202,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1429,7 +1438,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
@@ -2155,6 +2164,63 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="73">
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D5:E5"/>
@@ -2171,63 +2237,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2236,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,98 +2445,82 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="8">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2100</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="26">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26">
         <v>5</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D7" s="25">
         <v>100</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E7" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="26">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26">
-        <v>0</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0</v>
-      </c>
-      <c r="M6" s="26">
-        <v>0</v>
-      </c>
-      <c r="N6" s="26">
-        <v>0</v>
-      </c>
-      <c r="O6" s="26">
-        <v>0</v>
-      </c>
-      <c r="P6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="H7" s="25"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26">
+        <v>0</v>
+      </c>
+      <c r="P7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5</v>
-      </c>
-      <c r="D7" s="9">
-        <v>800</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>25</v>
       </c>
       <c r="B8" s="9">
         <v>5</v>
@@ -2539,13 +2532,13 @@
         <v>800</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="18"/>
@@ -2571,8 +2564,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="B9" s="9">
         <v>6</v>
       </c>
@@ -2580,16 +2575,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="9">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="18"/>
@@ -2616,8 +2611,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="9">
+      <c r="A10" s="41"/>
+      <c r="B10" s="8">
         <v>7</v>
       </c>
       <c r="C10" s="8">
@@ -2627,7 +2622,7 @@
         <v>100</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>63</v>
@@ -2659,119 +2654,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>100</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25">
-        <v>8</v>
-      </c>
-      <c r="C11" s="26">
+      <c r="B12" s="25">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26">
         <v>5</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D12" s="25">
         <v>800</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E12" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="26">
-        <v>0</v>
-      </c>
-      <c r="K11" s="26">
-        <v>0</v>
-      </c>
-      <c r="L11" s="26">
-        <v>0</v>
-      </c>
-      <c r="M11" s="26">
-        <v>0</v>
-      </c>
-      <c r="N11" s="26">
-        <v>0</v>
-      </c>
-      <c r="O11" s="26">
-        <v>0</v>
-      </c>
-      <c r="P11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="F12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="26">
+        <v>0</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0</v>
+      </c>
+      <c r="N12" s="26">
+        <v>0</v>
+      </c>
+      <c r="O12" s="26">
+        <v>0</v>
+      </c>
+      <c r="P12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
+      <c r="C13" s="8">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9">
         <v>500</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="9">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9">
-        <v>700</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="18"/>
@@ -2798,7 +2791,9 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43" t="s">
+        <v>28</v>
+      </c>
       <c r="B14" s="9">
         <v>11</v>
       </c>
@@ -2809,13 +2804,13 @@
         <v>700</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="18"/>
@@ -2842,9 +2837,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="42"/>
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -2852,16 +2845,16 @@
         <v>15</v>
       </c>
       <c r="D15" s="9">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="18"/>
@@ -2888,18 +2881,20 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="9">
+      <c r="A16" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8">
         <v>13</v>
       </c>
       <c r="C16" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>63</v>
@@ -2932,9 +2927,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A17" s="42"/>
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -2942,16 +2935,16 @@
         <v>10</v>
       </c>
       <c r="D17" s="9">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="18"/>
@@ -2979,25 +2972,25 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="9">
         <v>15</v>
       </c>
       <c r="C18" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D18" s="9">
         <v>100</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="18"/>
@@ -3023,14 +3016,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9">
+        <v>100</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="18"/>
       <c r="J19" s="8">
@@ -3056,12 +3063,22 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>30</v>
+      </c>
+      <c r="D20" s="9">
+        <v>800</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="18"/>
@@ -3695,86 +3712,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="22">
-        <v>0</v>
-      </c>
-      <c r="K40" s="22">
-        <v>0</v>
-      </c>
-      <c r="L40" s="22">
-        <v>0</v>
-      </c>
-      <c r="M40" s="22">
-        <v>0</v>
-      </c>
-      <c r="N40" s="22">
-        <v>0</v>
-      </c>
-      <c r="O40" s="22">
-        <v>0</v>
-      </c>
-      <c r="P40" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J42">
-        <f>SUM(J4:J40)</f>
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <f>SUM(K4:K40)</f>
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <f t="shared" ref="L42:P42" si="0">SUM(L4:L40)</f>
-        <v>0</v>
-      </c>
-      <c r="M42">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+      <c r="P40" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="22">
+        <v>0</v>
+      </c>
+      <c r="K41" s="22">
+        <v>0</v>
+      </c>
+      <c r="L41" s="22">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>0</v>
+      </c>
+      <c r="N41" s="22">
+        <v>0</v>
+      </c>
+      <c r="O41" s="22">
+        <v>0</v>
+      </c>
+      <c r="P41" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f>SUM(J4:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f>SUM(K4:K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:P43" si="0">SUM(L4:L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N42">
+      <c r="N43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O42">
+      <c r="O43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P42">
+      <c r="P43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J44" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
         <v>77</v>
       </c>
-      <c r="K44">
-        <f>SUM(J42:P42)</f>
+      <c r="K45">
+        <f>SUM(J43:P43)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
+  <mergeCells count="6">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F40">
+  <conditionalFormatting sqref="F4:F41">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Closed">
       <formula>NOT(ISERROR(SEARCH("Closed",F4)))</formula>
     </cfRule>

--- a/UserStory.xlsx
+++ b/UserStory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>User Story</t>
   </si>
@@ -297,7 +297,10 @@
     <t>Ajout d'un parcours (API)</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Damiano+Marlon</t>
+  </si>
+  <si>
+    <t>Marlon+Damiano</t>
   </si>
 </sst>
 </file>
@@ -764,6 +767,14 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -788,28 +799,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1202,56 +1205,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2164,6 +2167,63 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="73">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H7:K7"/>
@@ -2180,63 +2240,6 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2247,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2358,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="8">
@@ -2401,7 +2404,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
@@ -2445,7 +2448,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="9">
         <v>3</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>69</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="18"/>
@@ -2475,7 +2478,7 @@
       <c r="P6" s="21"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="26">
         <v>4</v>
       </c>
@@ -2565,7 +2568,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="9">
@@ -2611,7 +2614,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="8">
         <v>7</v>
       </c>
@@ -2655,7 +2658,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -2791,7 +2794,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="9">
@@ -2837,7 +2840,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="9">
         <v>12</v>
       </c>
@@ -2881,7 +2884,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="8">
@@ -2927,7 +2930,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="9">
         <v>14</v>
       </c>
@@ -2941,7 +2944,7 @@
         <v>84</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>74</v>
@@ -3017,7 +3020,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="40" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="8">
@@ -3033,7 +3036,7 @@
         <v>91</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>87</v>
@@ -3063,7 +3066,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="9">
         <v>17</v>
       </c>
@@ -3077,9 +3080,11 @@
         <v>92</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="18"/>
       <c r="J20" s="8">
